--- a/data/income_statement/2digits/total/01_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/01_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>01-Crop and animal production, hunting and related service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>01-Crop and animal production, hunting and related service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4188396.23983</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5296571.03713</v>
+        <v>5296571.037129999</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>6817621.027360001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8381658.440979999</v>
+        <v>8386857.565040001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10158598.87223</v>
+        <v>10187450.76651</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12956464.19396</v>
+        <v>13023409.49304</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15292955.16335</v>
+        <v>15456379.55912</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16535773.27628</v>
+        <v>18025194.76183</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>23832325.46365</v>
+        <v>22634087.46365</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30763302.55617</v>
+        <v>30782719.3013</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>39236793.98562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38710764.58047</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>46398548.499</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3388438.54691</v>
@@ -995,37 +906,42 @@
         <v>4376699.52675</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5839623.551670001</v>
+        <v>5839623.55167</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7207944.878389999</v>
+        <v>7213021.06623</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8744319.49371</v>
+        <v>8772690.62592</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11159608.18544</v>
+        <v>11222977.69727</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13295463.76102</v>
+        <v>13450636.39554</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15211841.30788</v>
+        <v>16018352.22615</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>21490187.30288</v>
+        <v>20291949.30288</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26390553.31373001</v>
+        <v>26408367.9531</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>33194140.01398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32628152.25247</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>40256949.722</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>722707.0119399999</v>
@@ -1040,73 +956,83 @@
         <v>1018544.1157</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1214616.0888</v>
+        <v>1214629.82224</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1578089.99332</v>
+        <v>1579804.02477</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1701317.42233</v>
+        <v>1703180.73014</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1033594.85117</v>
+        <v>1710219.77152</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1954489.80831</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3853839.5588</v>
+        <v>3854258.04569</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5368332.04733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5398548.996</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5272892.361</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>77250.68098</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>80307.9549</v>
+        <v>80307.95490000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>116358.20649</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>155169.44689</v>
+        <v>155292.38311</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>199663.28972</v>
+        <v>200130.31835</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>218766.0152</v>
+        <v>220627.771</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>296173.98</v>
+        <v>302562.43344</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>290337.1172300001</v>
+        <v>296622.76416</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>387648.35246</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>518909.68364</v>
+        <v>520093.3025100001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>674321.92431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>684063.3320000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>868706.416</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>40459.67696999999</v>
+        <v>40459.67697</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>44512.82646999999</v>
@@ -1115,34 +1041,39 @@
         <v>49305.48135</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>82962.38924</v>
+        <v>82964.84430000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>93287.73617</v>
+        <v>93339.65252000002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>156575.74766</v>
+        <v>156905.90125</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>154967.80237</v>
+        <v>155010.63544</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>173753.42929</v>
+        <v>228063.3549800001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1461633.30649</v>
+        <v>263395.30649</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>394468.20101</v>
+        <v>394486.27149</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1601805.55086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>477260.42806</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1280605.106</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>13397.30397</v>
@@ -1154,58 +1085,63 @@
         <v>14547.21085</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>32601.25708</v>
+        <v>32601.88208</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>36333.89838</v>
+        <v>36335.21758</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>72655.25866999998</v>
+        <v>72949.51121000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>61432.2149</v>
+        <v>61466.09524999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>66539.44004</v>
+        <v>75096.66858</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1294133.09132</v>
+        <v>95895.09132000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>162358.88007</v>
+        <v>162376.95055</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1338946.0078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>213871.9146</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>839967.931</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>19800.4532</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>22419.20229</v>
+        <v>22419.20228999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>27304.07912</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>38622.75029</v>
+        <v>38623.9227</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>43181.33028</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>68319.59979000001</v>
+        <v>68354.49946000002</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>82018.03819999998</v>
+        <v>82020.16529</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>92430.80852999999</v>
+        <v>134551.69496</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>142932.75832</v>
@@ -1214,52 +1150,62 @@
         <v>179759.27193</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>199600.03398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>200120.179</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>351769.804</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7261.9198</v>
+        <v>7261.919800000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7525.940269999999</v>
+        <v>7525.94027</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7454.191379999999</v>
+        <v>7454.19138</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>11738.38187</v>
+        <v>11739.03952</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>13772.50751</v>
+        <v>13823.10466</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15600.8892</v>
+        <v>15601.89058</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>11517.54927</v>
+        <v>11524.3749</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>14783.18072</v>
+        <v>18414.99144000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>24567.45685</v>
+        <v>24567.45685000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>52350.04901</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>63259.50908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>63268.33446</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>88867.371</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4147936.56286</v>
@@ -1268,37 +1214,42 @@
         <v>5252058.210659999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6768315.546010002</v>
+        <v>6768315.546010001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8298696.051739999</v>
+        <v>8303892.72074</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10065311.13606</v>
+        <v>10094111.11399</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12799888.4463</v>
+        <v>12866503.59179</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15137987.36098</v>
+        <v>15301368.92368</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16362019.84699</v>
+        <v>17797131.40685</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>22370692.15716</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30368834.35515999</v>
+        <v>30388233.02981</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>37634988.43476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>38233504.15241</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>45117943.393</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3513845.871710001</v>
@@ -1307,37 +1258,42 @@
         <v>4456486.77104</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5850734.69825</v>
+        <v>5850737.812830001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7210052.482220001</v>
+        <v>7214634.524780001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8830177.398980001</v>
+        <v>8855347.41945</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11192517.2679</v>
+        <v>11248086.94247</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13215384.42785</v>
+        <v>13360090.53371</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14584672.42868</v>
+        <v>15672903.63157</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>19370598.72639</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26288246.34068</v>
+        <v>26305242.97099</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>32743307.63025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>33268893.31268</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>39131969.624</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2115368.89279</v>
@@ -1349,34 +1305,39 @@
         <v>3498948.00667</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4358422.80596</v>
+        <v>4362474.538420001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5397421.139600001</v>
+        <v>5411880.4005</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6614754.360470001</v>
+        <v>6645580.159440001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8077482.269160001</v>
+        <v>8139283.713020001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8382511.79147</v>
+        <v>9297971.095040001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>11221181.37591</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15843546.47235</v>
+        <v>15851647.45396</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>19356242.7189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19579118.72995</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>23554203.603</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1194914.3918</v>
@@ -1388,34 +1349,39 @@
         <v>2075672.64689</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2503700.92274</v>
+        <v>2503914.85971</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3052218.75815</v>
+        <v>3061218.19975</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4085667.67844</v>
+        <v>4107785.00234</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4542696.19161</v>
+        <v>4613469.20096</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5465140.697740001</v>
+        <v>5601829.69423</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7350946.897419999</v>
+        <v>7350946.89742</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9459314.941979999</v>
+        <v>9465517.51399</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12114483.81075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12384425.84276</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>13964916.686</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>170911.85918</v>
@@ -1424,37 +1390,42 @@
         <v>190145.50709</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>249475.72012</v>
+        <v>249478.8346999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>295203.62827</v>
+        <v>295520.0014</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>309743.20737</v>
+        <v>311454.5253400001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>389414.10304</v>
+        <v>392040.65474</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>473822.53989</v>
+        <v>483400.7135700001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>512692.1886299999</v>
+        <v>546813.36847</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>632645.0706</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>829779.89108</v>
+        <v>832445.3956100001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1048891.64511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1076986.95613</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1371831.555</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>32650.72794</v>
@@ -1475,103 +1446,118 @@
         <v>102681.12595</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>121383.42719</v>
+        <v>123936.90616</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>224327.75084</v>
+        <v>226289.47383</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>165825.38246</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>155605.03527</v>
+        <v>155632.60743</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>223689.45549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>228361.78384</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>241017.78</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>634090.6911500001</v>
+        <v>634090.69115</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>795571.43962</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>917580.84776</v>
+        <v>917577.7331800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1088643.56952</v>
+        <v>1089258.19596</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1235133.73708</v>
+        <v>1238763.69454</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1607371.1784</v>
+        <v>1618416.64932</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1922602.93313</v>
+        <v>1941278.38997</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1777347.41831</v>
+        <v>2124227.77528</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3000093.43077</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4080588.01448</v>
+        <v>4082990.05882</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4891680.804509999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4964610.839729999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5985973.769</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>478083.6701</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>551565.0482000001</v>
+        <v>551565.0482</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>691466.57102</v>
+        <v>691524.8188799999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>814418.0615299999</v>
+        <v>815759.38975</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>953850.9310799999</v>
+        <v>957718.1136899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1139110.68277</v>
+        <v>1148695.32045</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1345494.14891</v>
+        <v>1361471.14421</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1438622.8146</v>
+        <v>1539407.99379</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1887535.86138</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2532190.79154</v>
+        <v>2536272.90561</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3003361.94568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3051399.34718</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3572756.736</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2232.12635</v>
@@ -1589,28 +1575,33 @@
         <v>3370.26882</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5634.45076</v>
+        <v>5634.450760000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>12539.69321</v>
+        <v>12951.50058</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>12447.71151</v>
+        <v>13045.76417</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>24117.05503</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>50724.59263</v>
+        <v>50724.59262999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>61969.87056999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>63473.80185</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>101771.03</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>122022.51891</v>
@@ -1622,34 +1613,39 @@
         <v>164185.03279</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>198960.65307</v>
+        <v>199042.69519</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>237929.33877</v>
+        <v>238584.32837</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>298400.70727</v>
+        <v>301022.96409</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>346970.8505599999</v>
+        <v>349670.33972</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>367565.64407</v>
+        <v>417601.78229</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>564965.2662100001</v>
+        <v>564965.26621</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>839709.19797</v>
+        <v>839847.1622500001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1021718.30449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1035080.99945</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1187830.695</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>353829.02484</v>
@@ -1658,37 +1654,42 @@
         <v>413423.12881</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>523188.15529</v>
+        <v>523246.40315</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>611450.6823300001</v>
+        <v>612709.9684299999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>712551.3234899999</v>
+        <v>715763.5165</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>835075.52474</v>
+        <v>842037.9056000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>985983.6051400002</v>
+        <v>998849.30391</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1058609.45902</v>
+        <v>1108760.44733</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1298453.54014</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1641757.00094</v>
+        <v>1645701.15073</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1919673.77062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1952844.54588</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2283155.011</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>156007.02105</v>
@@ -1697,37 +1698,42 @@
         <v>244006.39142</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>226114.27674</v>
+        <v>226052.9143</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>274225.50799</v>
+        <v>273498.80621</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>281282.806</v>
+        <v>281045.58085</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>468260.4956300001</v>
+        <v>469721.32887</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>577108.78422</v>
+        <v>579807.24576</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>338724.6037100001</v>
+        <v>584819.78149</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1112557.56939</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1548397.22294</v>
+        <v>1546717.15321</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1888318.85883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1913211.49255</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2413217.033</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>145988.22026</v>
@@ -1736,43 +1742,48 @@
         <v>164425.98298</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>215338.04703</v>
+        <v>215344.09223</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>327465.3721</v>
+        <v>327878.49017</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>310605.09037</v>
+        <v>310871.08968</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>413015.56538</v>
+        <v>415259.0016</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>510736.00575</v>
+        <v>513085.74345</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>642847.1059699999</v>
+        <v>742810.8438199998</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>764070.32527</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1706157.60493</v>
+        <v>1706384.79989</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1852134.16468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1922689.87026</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1970590.156</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3243.55741</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4908.908520000001</v>
+        <v>4908.90852</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>4558.52679</v>
@@ -1790,7 +1801,7 @@
         <v>52431.74262</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>25008.97961</v>
+        <v>26613.09905</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>24793.5672</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>225435.9388</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>70252.788</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.69143</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>9893.835230000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>16560.615</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9529.578729999999</v>
+        <v>9529.578730000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>11242.71372</v>
@@ -1856,34 +1877,39 @@
         <v>14433.53882</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>19986.99698</v>
+        <v>19991.49055</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>21105.9299</v>
+        <v>21108.442</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>29251.05643</v>
+        <v>29565.26762</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43482.24345</v>
+        <v>43817.38151</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>63291.25094999999</v>
+        <v>67310.21592</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>91909.10903000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>138927.71778</v>
+        <v>138952.10917</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>162730.05708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>163153.05184</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>131785.567</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>257.55431</v>
@@ -1904,25 +1930,30 @@
         <v>1851.47984</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1690.83497</v>
+        <v>2070.37606</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5675.00822</v>
+        <v>6038.746389999998</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3278.283019999999</v>
+        <v>3278.28302</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4064.12016</v>
+        <v>4064.120159999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4043.54547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4492.58863</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3927.897</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3478.68289</v>
@@ -1937,16 +1968,16 @@
         <v>2799.65166</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4750.796399999999</v>
+        <v>4750.7964</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3425.83255</v>
+        <v>3454.89716</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>5820.929</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8384.92411</v>
+        <v>10501.68103</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11764.50204</v>
@@ -1955,13 +1986,18 @@
         <v>11294.54307</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10566.19668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>10595.85826</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10779.264</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1108.64784</v>
@@ -1970,76 +2006,86 @@
         <v>531.7501600000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>964.6192400000001</v>
+        <v>970.6644399999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1165.49642</v>
+        <v>1177.09425</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1951.2489</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1416.77826</v>
+        <v>1430.36855</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4497.441789999999</v>
+        <v>4499.43394</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2117.98002</v>
+        <v>2188.243460000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3907.40351</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5352.3925</v>
+        <v>5383.95768</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10663.16678</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10663.37953</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>37162.594</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>82446.10519</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>89597.83456999999</v>
+        <v>89597.83457000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>116042.32417</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>160286.15689</v>
+        <v>160334.39583</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>98854.47598</v>
+        <v>98882.37623000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>163184.54052</v>
+        <v>163498.23162</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>223506.05523</v>
+        <v>223913.48065</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>241692.407</v>
+        <v>326766.66585</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>315234.15925</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1154439.1111</v>
+        <v>1154440.66107</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1053018.75494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1120720.46719</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1230893.782</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>67.29729</v>
@@ -2051,19 +2097,19 @@
         <v>270.66333</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>34.54317</v>
+        <v>82.39345999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>646.8474199999999</v>
+        <v>652.5210500000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1145.36187</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3036.329560000001</v>
+        <v>3036.32956</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1189.50024</v>
+        <v>1792.37491</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2261.29455</v>
@@ -2072,13 +2118,18 @@
         <v>3728.65523</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>10788.03754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>11406.74294</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>27047.636</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.93434</v>
@@ -2096,7 +2147,7 @@
         <v>122.71654</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>729.34289</v>
+        <v>729.3428899999999</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>133.17397</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>49.28391999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>233.226</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>45842.17083</v>
@@ -2126,37 +2182,42 @@
         <v>55745.5734</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>73308.76203999999</v>
+        <v>73308.76204</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>92213.71867</v>
+        <v>92514.65611000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>126287.52932</v>
+        <v>126517.44265</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>156159.77569</v>
+        <v>157732.65472</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>173240.1515</v>
+        <v>174465.79248</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>184090.42132</v>
+        <v>190203.18271</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>232436.41009</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>287342.73887</v>
+        <v>287512.42729</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>364945.34824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>366278.72392</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>441946.787</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>138801.63798</v>
@@ -2165,40 +2226,45 @@
         <v>89323.53388000002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>172388.63533</v>
+        <v>172391.09167</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>179841.859</v>
+        <v>179904.2096</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>204669.68611</v>
+        <v>204836.52675</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>266818.73779</v>
+        <v>267515.20838</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>349844.5104799999</v>
+        <v>351615.08325</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>410393.32942</v>
+        <v>455667.45495</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>491805.15951</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1391031.26778</v>
+        <v>1392238.35618</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1384287.31774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1447111.6953</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1505863.194</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>616.6180599999999</v>
+        <v>616.61806</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1267.26954</v>
@@ -2207,73 +2273,83 @@
         <v>1927.15369</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4078.95466</v>
+        <v>4086.60864</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7499.787260000001</v>
+        <v>7508.286090000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6693.79882</v>
+        <v>6700.34363</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7671.34412</v>
+        <v>7701.588699999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9379.059160000001</v>
+        <v>9443.971969999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>10474.638</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>16238.02874</v>
+        <v>16297.69357</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11189.11895</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11201.5664</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>33427.6</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>8696.952630000002</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5491.502200000001</v>
+        <v>5491.502199999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>5659.83893</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>9074.674389999998</v>
+        <v>9074.67439</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>12069.68587</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>16551.21486</v>
+        <v>16848.93313</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>25630.80667</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>34738.29845</v>
+        <v>37530.95473</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>44761.71145999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>48493.58433000001</v>
+        <v>48493.58433</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>52567.8266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>53425.93078</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>53814.967</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>165.38085</v>
@@ -2282,13 +2358,13 @@
         <v>58.01855</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>54.44636999999999</v>
+        <v>54.54510999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>448.56155</v>
+        <v>448.5615500000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2808.27562</v>
+        <v>2808.275619999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>198.96226</v>
@@ -2303,55 +2379,65 @@
         <v>1340.40431</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4590.425689999999</v>
+        <v>4590.425689999998</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6621.510540000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4215.36826</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2367.315</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>73238.94101</v>
+        <v>73238.94101000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>55433.65429000001</v>
+        <v>55433.65428999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>130098.93454</v>
+        <v>130101.29214</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>117170.22369</v>
+        <v>117181.14092</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>125293.14423</v>
+        <v>125451.07697</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>144939.6239</v>
+        <v>145235.39657</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>219161.7299</v>
+        <v>219882.81598</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>270360.0319299999</v>
+        <v>307219.26283</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>324786.00592</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1154288.29092</v>
+        <v>1154506.9663</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1127168.43573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1190337.68632</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1217821.436</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>109.44888</v>
@@ -2375,22 +2461,27 @@
         <v>2345.22489</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1567.40541</v>
+        <v>4191.96906</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>3418.691359999999</v>
+        <v>3418.69136</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>10096.9693</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>19365.56084</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>19816.09721</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>22942.604</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>55974.29655000001</v>
@@ -2438,76 +2534,86 @@
         <v>26991.94977</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>34290.17952999999</v>
+        <v>34290.17953</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>48586.02688</v>
+        <v>48629.80627</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>55165.55286</v>
+        <v>55165.96193</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>96599.61623</v>
+        <v>96696.05106999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>93401.39656000001</v>
+        <v>94420.63866999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>93359.00436000001</v>
+        <v>96291.76625000002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>107023.70846</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>157294.08737</v>
+        <v>158222.83556</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>167374.86508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>168115.04633</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>175489.272</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>141986.26451</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>94306.71272000001</v>
+        <v>94306.71272</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>157100.19701</v>
+        <v>157285.87775</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>211460.40644</v>
+        <v>211724.93482</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>258297.37246</v>
+        <v>259004.30084</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>462314.4678699999</v>
+        <v>465257.31617</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>563271.2106499999</v>
+        <v>571146.4692000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>568553.52464</v>
+        <v>677499.8361899999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>798907.18698</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1110592.15013</v>
+        <v>1110624.39224</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1457982.35227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1467148.83932</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1266484.293</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>127336.46369</v>
@@ -2516,37 +2622,42 @@
         <v>75234.75712000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>123828.76263</v>
+        <v>124014.44337</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>176105.51193</v>
+        <v>176370.04031</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>210140.79541</v>
+        <v>210847.72379</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>397657.29512</v>
+        <v>400600.14342</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>475318.9656700001</v>
+        <v>483194.2242199999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>511036.72402</v>
+        <v>619756.4902299999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>721105.5649700001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>958074.7529699999</v>
+        <v>958106.9950799999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1325899.86821</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1334823.26736</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1123015.928</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>14649.80082</v>
@@ -2558,19 +2669,19 @@
         <v>33271.43438000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>35354.89451</v>
+        <v>35354.89451000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>48156.57705000001</v>
+        <v>48156.57705</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>64657.17274999999</v>
+        <v>64657.17275</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>87952.24497999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>57516.80062</v>
+        <v>57743.34595999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>77801.62200999999</v>
@@ -2579,52 +2690,62 @@
         <v>152517.39716</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>132082.48406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>132325.57196</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>143468.365</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>21207.33881999999</v>
+        <v>21207.33881999998</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>224802.1278</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>111963.49143</v>
+        <v>111720.03711</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>210388.61465</v>
+        <v>209748.15196</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>128920.8378</v>
+        <v>128075.84294</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>152142.85535</v>
+        <v>152207.80592</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>174729.06884</v>
+        <v>170131.43676</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2624.855620000003</v>
+        <v>194463.33417</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>585915.5481700001</v>
+        <v>585915.54817</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>752931.4099600001</v>
+        <v>750239.20468</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>898183.3535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>921640.82819</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1611459.702</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>66764.68111</v>
@@ -2636,34 +2757,39 @@
         <v>76221.90341000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>117680.85605</v>
+        <v>118666.99666</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>129222.22729</v>
+        <v>130459.53559</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>181443.83235</v>
+        <v>182290.11004</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>204479.65971</v>
+        <v>208818.03279</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>237960.03084</v>
+        <v>243394.2013</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>274405.74736</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>342186.14118</v>
+        <v>342274.23926</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>447987.64859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>457240.19127</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>563905.14</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>481.8073</v>
@@ -2681,106 +2807,121 @@
         <v>1742.43489</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3269.14368</v>
+        <v>3270.87942</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>2527.87248</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2267.33939</v>
+        <v>2322.05267</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5380.10842</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8759.254939999999</v>
+        <v>8760.887940000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5282.924089999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5282.92409</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17735.076</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>66282.87381</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>79091.08849000001</v>
+        <v>79091.08848999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>74439.95973999999</v>
+        <v>74439.95974000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>115780.42206</v>
+        <v>116766.56267</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>127479.7924</v>
+        <v>128717.1007</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>178174.68867</v>
+        <v>179019.23062</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>201951.78723</v>
+        <v>206290.16031</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>235692.69145</v>
+        <v>241072.14863</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>269025.63894</v>
+        <v>269025.6389399999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>333426.88624</v>
+        <v>333513.35132</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>442704.7245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>451957.26718</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>546170.064</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>74063.76531</v>
+        <v>74063.76530999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>65381.34704999999</v>
+        <v>65381.34705</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>159860.48705</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>137281.55043</v>
+        <v>137876.51299</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>145035.25008</v>
+        <v>145452.43537</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>249466.12619</v>
+        <v>250424.41841</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>214935.03488</v>
+        <v>218867.83942</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>278443.43425</v>
+        <v>286683.08073</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>232295.22982</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>390848.13139</v>
+        <v>390925.83263</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>377167.10486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>380796.53557</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>446484.793</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11314.6109</v>
@@ -2795,31 +2936,36 @@
         <v>24081.70679</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>20258.41539000001</v>
+        <v>20258.41539</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>31138.44103</v>
+        <v>31138.44103000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>36550.43095</v>
+        <v>36550.43094999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>31346.38187</v>
+        <v>33530.08446</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>41405.38828999999</v>
+        <v>41405.38829</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>37477.54607</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>33523.64090000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>33541.71136</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>63745.131</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>19816.72438</v>
@@ -2831,187 +2977,210 @@
         <v>23833.42083</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>31266.51262</v>
+        <v>31259.12606</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>29979.09142</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>47582.39193000001</v>
+        <v>47585.06646000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>25903.14577</v>
+        <v>26112.4978</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>30785.53401</v>
+        <v>31314.91777</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>34736.0992</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>34090.79379</v>
+        <v>34092.2352</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>56669.2043</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>56770.02716</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>54795.262</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>42932.43003</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>33077.51059</v>
+        <v>33077.51059000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>118224.09376</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>81933.33102</v>
+        <v>82535.68014</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>94797.74326999999</v>
+        <v>95214.92856</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>170745.29323</v>
+        <v>171700.91092</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>152481.45816</v>
+        <v>156204.91067</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>216311.51837</v>
+        <v>221838.0785</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>156153.74233</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>319279.79153</v>
+        <v>319356.05136</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>286974.25966</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>290484.79705</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>327944.4</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>13908.25462</v>
+        <v>13908.25462000002</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>240276.42342</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>28324.90779</v>
+        <v>28081.45347</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>190787.92027</v>
+        <v>190538.63563</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>113107.81501</v>
+        <v>113082.94316</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>84120.56151</v>
+        <v>84073.49755</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>164273.69367</v>
+        <v>160081.63013</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-37858.54778999999</v>
+        <v>151174.45474</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>628026.0657100001</v>
+        <v>628026.0657099999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>704269.4197499999</v>
+        <v>701587.6113100001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>969003.89723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>998084.4838900001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1728880.049</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>37415.39632000001</v>
+        <v>37415.39632</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>57289.22099000001</v>
+        <v>57289.22098999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>49759.13124999999</v>
+        <v>49759.13125</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>56812.96664</v>
+        <v>56834.64408999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>51205.25893</v>
+        <v>51268.27787</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>67334.22818000001</v>
+        <v>67683.71823999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>85696.43110000002</v>
+        <v>86539.35566</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>73672.76555999999</v>
+        <v>112867.32688</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>130752.30637</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>242129.52866</v>
+        <v>242231.20151</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>290777.8137299999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>292727.9318</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>429655.427</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-23507.14170000001</v>
+        <v>-23507.14169999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>182987.20243</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21434.22346000001</v>
+        <v>-21677.67777999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>133974.95363</v>
+        <v>133703.99154</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>61902.55608</v>
+        <v>61814.66528999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>16786.33333000001</v>
+        <v>16389.77931000003</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>78577.26256999998</v>
+        <v>73542.27447000003</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-111531.31335</v>
+        <v>38307.12786</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>497273.75934</v>
+        <v>497273.7593400001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>462139.89109</v>
+        <v>459356.4098000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>678226.0834999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>705356.5520899999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1299224.622</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4426</v>
@@ -3038,34 +3210,37 @@
         <v>5509</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5940</v>
+        <v>5942</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6029</v>
+        <v>6046</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6374</v>
+        <v>6413</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6627</v>
+        <v>6683</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7117</v>
+        <v>7215</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7878</v>
+        <v>7965</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8298</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8539</v>
+        <v>8802</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9453</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10661</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>